--- a/oil share/required oil share.xlsx
+++ b/oil share/required oil share.xlsx
@@ -437,911 +437,1571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="1">
         <v>2010</v>
       </c>
-      <c r="C1" s="1">
+      <c r="M1" s="1">
         <v>2011</v>
       </c>
-      <c r="D1" s="1">
+      <c r="N1" s="1">
         <v>2012</v>
       </c>
-      <c r="E1" s="1">
+      <c r="O1" s="1">
         <v>2013</v>
       </c>
-      <c r="F1" s="1">
+      <c r="P1" s="1">
         <v>2014</v>
       </c>
-      <c r="G1" s="1">
+      <c r="Q1" s="1">
         <v>2015</v>
       </c>
-      <c r="H1" s="1">
+      <c r="R1" s="1">
         <v>2016</v>
       </c>
-      <c r="I1" s="1">
+      <c r="S1" s="1">
         <v>2017</v>
       </c>
-      <c r="J1" s="1">
+      <c r="T1" s="1">
         <v>2018</v>
       </c>
-      <c r="K1" s="1">
+      <c r="U1" s="1">
         <v>2019</v>
       </c>
-      <c r="L1" s="1">
+      <c r="V1" s="1">
         <v>2020</v>
       </c>
-      <c r="M1" s="1">
+      <c r="W1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.3040944996512843</v>
+      </c>
+      <c r="C2">
+        <v>0.3192698464128026</v>
+      </c>
+      <c r="D2">
+        <v>0.3203158055172622</v>
+      </c>
+      <c r="E2">
+        <v>0.3306872543090502</v>
+      </c>
+      <c r="F2">
+        <v>0.3399410546638355</v>
+      </c>
+      <c r="G2">
+        <v>0.3283907674940524</v>
+      </c>
+      <c r="H2">
+        <v>0.3331350716303899</v>
+      </c>
+      <c r="I2">
+        <v>0.3294826167084153</v>
+      </c>
+      <c r="J2">
+        <v>0.3218450096257503</v>
+      </c>
+      <c r="K2">
+        <v>0.3267430752917648</v>
+      </c>
+      <c r="L2">
         <v>0.337950512722574</v>
       </c>
-      <c r="C2">
+      <c r="M2">
         <v>0.3261909722275279</v>
       </c>
-      <c r="D2">
+      <c r="N2">
         <v>0.3297428620687025</v>
       </c>
-      <c r="E2">
+      <c r="O2">
         <v>0.3204149803912025</v>
       </c>
-      <c r="F2">
+      <c r="P2">
         <v>0.3192751153516196</v>
       </c>
-      <c r="G2">
+      <c r="Q2">
         <v>0.3180070865768326</v>
       </c>
-      <c r="H2">
+      <c r="R2">
         <v>0.3216355163362157</v>
       </c>
-      <c r="I2">
+      <c r="S2">
         <v>0.313745209400109</v>
       </c>
-      <c r="J2">
+      <c r="T2">
         <v>0.3220466528849451</v>
       </c>
-      <c r="K2">
+      <c r="U2">
         <v>0.3210996527497363</v>
       </c>
-      <c r="L2">
+      <c r="V2">
         <v>0.2975630462815015</v>
       </c>
-      <c r="M2">
+      <c r="W2">
         <v>0.2991973637533036</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.6481532347779978</v>
+      </c>
+      <c r="C3">
+        <v>0.6455456415558708</v>
+      </c>
+      <c r="D3">
+        <v>0.5985369381242416</v>
+      </c>
+      <c r="E3">
+        <v>0.6094720632753856</v>
+      </c>
+      <c r="F3">
+        <v>0.6016101075422773</v>
+      </c>
+      <c r="G3">
+        <v>0.5789259494215768</v>
+      </c>
+      <c r="H3">
+        <v>0.5553757207148545</v>
+      </c>
+      <c r="I3">
+        <v>0.5740923605510694</v>
+      </c>
+      <c r="J3">
+        <v>0.5603986488642825</v>
+      </c>
+      <c r="K3">
+        <v>0.5463096546831008</v>
+      </c>
+      <c r="L3">
         <v>0.5327116198950428</v>
       </c>
-      <c r="C3">
+      <c r="M3">
         <v>0.5168221326561209</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>0.5221897458566452</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>0.5056230019151843</v>
       </c>
-      <c r="F3">
+      <c r="P3">
         <v>0.4848724465942842</v>
       </c>
-      <c r="G3">
+      <c r="Q3">
         <v>0.4799279802782639</v>
       </c>
-      <c r="H3">
+      <c r="R3">
         <v>0.4772815265630649</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>0.4529786637999236</v>
       </c>
-      <c r="J3">
+      <c r="T3">
         <v>0.4438607386091328</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>0.4268821778614372</v>
       </c>
-      <c r="L3">
+      <c r="V3">
         <v>0.3834783419750218</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>0.3770290478468726</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0.4013547672717739</v>
+      </c>
+      <c r="C4">
+        <v>0.410486574893914</v>
+      </c>
+      <c r="D4">
+        <v>0.4046876026760003</v>
+      </c>
+      <c r="E4">
+        <v>0.4095389119323589</v>
+      </c>
+      <c r="F4">
+        <v>0.4163155122507384</v>
+      </c>
+      <c r="G4">
+        <v>0.4167232448097901</v>
+      </c>
+      <c r="H4">
+        <v>0.414670008872621</v>
+      </c>
+      <c r="I4">
+        <v>0.4065120526527097</v>
+      </c>
+      <c r="J4">
+        <v>0.3890738407203486</v>
+      </c>
+      <c r="K4">
+        <v>0.3878525748296917</v>
+      </c>
+      <c r="L4">
         <v>0.3811374562886696</v>
       </c>
-      <c r="C4">
+      <c r="M4">
         <v>0.3768379149089541</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>0.3781794621211254</v>
       </c>
-      <c r="E4">
+      <c r="O4">
         <v>0.3742089019587519</v>
       </c>
-      <c r="F4">
+      <c r="P4">
         <v>0.372872150317435</v>
       </c>
-      <c r="G4">
+      <c r="Q4">
         <v>0.3841498379044311</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>0.3872611063110443</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>0.389548911293612</v>
       </c>
-      <c r="J4">
+      <c r="T4">
         <v>0.384857201602212</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>0.3870263243836596</v>
       </c>
-      <c r="L4">
+      <c r="V4">
         <v>0.3672717996274336</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>0.3799754507523379</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0.4761285383152388</v>
+      </c>
+      <c r="C5">
+        <v>0.4820261287469494</v>
+      </c>
+      <c r="D5">
+        <v>0.4752828445513772</v>
+      </c>
+      <c r="E5">
+        <v>0.4606100911482769</v>
+      </c>
+      <c r="F5">
+        <v>0.4541835857162552</v>
+      </c>
+      <c r="G5">
+        <v>0.4512105696658563</v>
+      </c>
+      <c r="H5">
+        <v>0.4407783316549703</v>
+      </c>
+      <c r="I5">
+        <v>0.4444307963777999</v>
+      </c>
+      <c r="J5">
+        <v>0.4453415119130565</v>
+      </c>
+      <c r="K5">
+        <v>0.4446649784340707</v>
+      </c>
+      <c r="L5">
         <v>0.4435085295201677</v>
       </c>
-      <c r="C5">
+      <c r="M5">
         <v>0.4427894164817616</v>
       </c>
-      <c r="D5">
+      <c r="N5">
         <v>0.44566965292605</v>
       </c>
-      <c r="E5">
+      <c r="O5">
         <v>0.4501236247144602</v>
       </c>
-      <c r="F5">
+      <c r="P5">
         <v>0.4464269710083462</v>
       </c>
-      <c r="G5">
+      <c r="Q5">
         <v>0.4349795271320038</v>
       </c>
-      <c r="H5">
+      <c r="R5">
         <v>0.4247657763570927</v>
       </c>
-      <c r="I5">
+      <c r="S5">
         <v>0.4169904114406816</v>
       </c>
-      <c r="J5">
+      <c r="T5">
         <v>0.4079403309321178</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>0.4061880103943294</v>
       </c>
-      <c r="L5">
+      <c r="V5">
         <v>0.3850410146716629</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>0.3975526625003087</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>0.3791983928328183</v>
+      </c>
+      <c r="C6">
+        <v>0.3802013748275911</v>
+      </c>
+      <c r="D6">
+        <v>0.3804912962015186</v>
+      </c>
+      <c r="E6">
+        <v>0.3759387968874923</v>
+      </c>
+      <c r="F6">
+        <v>0.3738872910359397</v>
+      </c>
+      <c r="G6">
+        <v>0.3744688072154093</v>
+      </c>
+      <c r="H6">
+        <v>0.3722830602581816</v>
+      </c>
+      <c r="I6">
+        <v>0.3681647478670296</v>
+      </c>
+      <c r="J6">
+        <v>0.3659543653108177</v>
+      </c>
+      <c r="K6">
+        <v>0.3694063994272968</v>
+      </c>
+      <c r="L6">
         <v>0.3520100407295673</v>
       </c>
-      <c r="C6">
+      <c r="M6">
         <v>0.3504255077506794</v>
       </c>
-      <c r="D6">
+      <c r="N6">
         <v>0.3394588785669703</v>
       </c>
-      <c r="E6">
+      <c r="O6">
         <v>0.3364335533518323</v>
       </c>
-      <c r="F6">
+      <c r="P6">
         <v>0.3429794788271559</v>
       </c>
-      <c r="G6">
+      <c r="Q6">
         <v>0.3484089640382971</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0.3518501098163804</v>
       </c>
-      <c r="I6">
+      <c r="S6">
         <v>0.355375300595886</v>
       </c>
-      <c r="J6">
+      <c r="T6">
         <v>0.3532699598234053</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>0.357079994937936</v>
       </c>
-      <c r="L6">
+      <c r="V6">
         <v>0.3325561377105997</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>0.334658224951193</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0.2031865465355898</v>
+      </c>
+      <c r="C7">
+        <v>0.2059725277436965</v>
+      </c>
+      <c r="D7">
+        <v>0.199523427569476</v>
+      </c>
+      <c r="E7">
+        <v>0.2026169026655893</v>
+      </c>
+      <c r="F7">
+        <v>0.1980915208320901</v>
+      </c>
+      <c r="G7">
+        <v>0.1990723127834213</v>
+      </c>
+      <c r="H7">
+        <v>0.2002812659538833</v>
+      </c>
+      <c r="I7">
+        <v>0.1982229828869731</v>
+      </c>
+      <c r="J7">
+        <v>0.2036292550583129</v>
+      </c>
+      <c r="K7">
+        <v>0.2055676266259421</v>
+      </c>
+      <c r="L7">
         <v>0.2053751131220355</v>
       </c>
-      <c r="C7">
+      <c r="M7">
         <v>0.2130670792727649</v>
       </c>
-      <c r="D7">
+      <c r="N7">
         <v>0.2162264438317691</v>
       </c>
-      <c r="E7">
+      <c r="O7">
         <v>0.218707265889539</v>
       </c>
-      <c r="F7">
+      <c r="P7">
         <v>0.2287548590618717</v>
       </c>
-      <c r="G7">
+      <c r="Q7">
         <v>0.2235890975485475</v>
       </c>
-      <c r="H7">
+      <c r="R7">
         <v>0.2243417479013344</v>
       </c>
-      <c r="I7">
+      <c r="S7">
         <v>0.2221264907522799</v>
       </c>
-      <c r="J7">
+      <c r="T7">
         <v>0.2165832494612709</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>0.2228508309431488</v>
       </c>
-      <c r="L7">
+      <c r="V7">
         <v>0.2194044822928111</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>0.2142892612519587</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>0.2490120514603654</v>
+      </c>
+      <c r="C8">
+        <v>0.2209441450118475</v>
+      </c>
+      <c r="D8">
+        <v>0.2256997397210422</v>
+      </c>
+      <c r="E8">
+        <v>0.2322916602539035</v>
+      </c>
+      <c r="F8">
+        <v>0.2230735598482333</v>
+      </c>
+      <c r="G8">
+        <v>0.2174777983518354</v>
+      </c>
+      <c r="H8">
+        <v>0.2296621957046549</v>
+      </c>
+      <c r="I8">
+        <v>0.2245949909499341</v>
+      </c>
+      <c r="J8">
+        <v>0.222717814998197</v>
+      </c>
+      <c r="K8">
+        <v>0.2124511330697419</v>
+      </c>
+      <c r="L8">
         <v>0.2016728131605917</v>
       </c>
-      <c r="C8">
+      <c r="M8">
         <v>0.214302382701524</v>
       </c>
-      <c r="D8">
+      <c r="N8">
         <v>0.2209068897180101</v>
       </c>
-      <c r="E8">
+      <c r="O8">
         <v>0.2176652466050225</v>
       </c>
-      <c r="F8">
+      <c r="P8">
         <v>0.2141184005906365</v>
       </c>
-      <c r="G8">
+      <c r="Q8">
         <v>0.2062695081019723</v>
       </c>
-      <c r="H8">
+      <c r="R8">
         <v>0.2150737464183927</v>
       </c>
-      <c r="I8">
+      <c r="S8">
         <v>0.2099367084129522</v>
       </c>
-      <c r="J8">
+      <c r="T8">
         <v>0.2117937592007635</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>0.2098558027586995</v>
       </c>
-      <c r="L8">
+      <c r="V8">
         <v>0.1975545726154193</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>0.1952020501133301</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>0.8779614537448177</v>
+      </c>
+      <c r="C9">
+        <v>0.8970917749740025</v>
+      </c>
+      <c r="D9">
+        <v>0.8957079730431994</v>
+      </c>
+      <c r="E9">
+        <v>0.9059018841281414</v>
+      </c>
+      <c r="F9">
+        <v>0.9200436591424805</v>
+      </c>
+      <c r="G9">
+        <v>0.9098735015793181</v>
+      </c>
+      <c r="H9">
+        <v>0.9066486183147678</v>
+      </c>
+      <c r="I9">
+        <v>0.8069311908594297</v>
+      </c>
+      <c r="J9">
+        <v>0.7894977841519574</v>
+      </c>
+      <c r="K9">
+        <v>0.7748799629721137</v>
+      </c>
+      <c r="L9">
         <v>0.7860640288988511</v>
       </c>
-      <c r="C9">
+      <c r="M9">
         <v>0.8150158615326203</v>
       </c>
-      <c r="D9">
+      <c r="N9">
         <v>0.823266386348506</v>
       </c>
-      <c r="E9">
+      <c r="O9">
         <v>0.8240588891101086</v>
       </c>
-      <c r="F9">
+      <c r="P9">
         <v>0.8155137126523992</v>
       </c>
-      <c r="G9">
+      <c r="Q9">
         <v>0.816204054867841</v>
       </c>
-      <c r="H9">
+      <c r="R9">
         <v>0.7836288392219019</v>
       </c>
-      <c r="I9">
+      <c r="S9">
         <v>0.7723969706821672</v>
       </c>
-      <c r="J9">
+      <c r="T9">
         <v>0.7615254599991721</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>0.661860674737074</v>
       </c>
-      <c r="L9">
+      <c r="V9">
         <v>0.6484468772828733</v>
       </c>
-      <c r="M9">
+      <c r="W9">
         <v>0.6951159193387697</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>0.6455148473538058</v>
+      </c>
+      <c r="C10">
+        <v>0.6413308468423576</v>
+      </c>
+      <c r="D10">
+        <v>0.6362896605755659</v>
+      </c>
+      <c r="E10">
+        <v>0.6362752998822749</v>
+      </c>
+      <c r="F10">
+        <v>0.6333961486336289</v>
+      </c>
+      <c r="G10">
+        <v>0.6150637008283761</v>
+      </c>
+      <c r="H10">
+        <v>0.6186671809110852</v>
+      </c>
+      <c r="I10">
+        <v>0.6296186450236124</v>
+      </c>
+      <c r="J10">
+        <v>0.6349684216287029</v>
+      </c>
+      <c r="K10">
+        <v>0.6603688763132833</v>
+      </c>
+      <c r="L10">
         <v>0.6565048393820994</v>
       </c>
-      <c r="C10">
+      <c r="M10">
         <v>0.6561243477506279</v>
       </c>
-      <c r="D10">
+      <c r="N10">
         <v>0.6508251943511389</v>
       </c>
-      <c r="E10">
+      <c r="O10">
         <v>0.6498035804011544</v>
       </c>
-      <c r="F10">
+      <c r="P10">
         <v>0.6669708264000299</v>
       </c>
-      <c r="G10">
+      <c r="Q10">
         <v>0.6708449077575852</v>
       </c>
-      <c r="H10">
+      <c r="R10">
         <v>0.6598407921772232</v>
       </c>
-      <c r="I10">
+      <c r="S10">
         <v>0.6444530654822578</v>
       </c>
-      <c r="J10">
+      <c r="T10">
         <v>0.6306951081168669</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>0.6286079125667374</v>
       </c>
-      <c r="L10">
+      <c r="V10">
         <v>0.616072463249591</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>0.6088542166400467</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>0.4280461825630072</v>
+      </c>
+      <c r="C11">
+        <v>0.4184550142727629</v>
+      </c>
+      <c r="D11">
+        <v>0.3976835689412963</v>
+      </c>
+      <c r="E11">
+        <v>0.4127911121205089</v>
+      </c>
+      <c r="F11">
+        <v>0.4170794448830011</v>
+      </c>
+      <c r="G11">
+        <v>0.415725298667072</v>
+      </c>
+      <c r="H11">
+        <v>0.4252809683976814</v>
+      </c>
+      <c r="I11">
+        <v>0.4122899777081719</v>
+      </c>
+      <c r="J11">
+        <v>0.377970318500542</v>
+      </c>
+      <c r="K11">
+        <v>0.3743526634534399</v>
+      </c>
+      <c r="L11">
         <v>0.3825958547754695</v>
       </c>
-      <c r="C11">
+      <c r="M11">
         <v>0.3911515330859688</v>
       </c>
-      <c r="D11">
+      <c r="N11">
         <v>0.3897672516338398</v>
       </c>
-      <c r="E11">
+      <c r="O11">
         <v>0.4102647847660367</v>
       </c>
-      <c r="F11">
+      <c r="P11">
         <v>0.4132581233968783</v>
       </c>
-      <c r="G11">
+      <c r="Q11">
         <v>0.4024980616367893</v>
       </c>
-      <c r="H11">
+      <c r="R11">
         <v>0.4225837072131964</v>
       </c>
-      <c r="I11">
+      <c r="S11">
         <v>0.4170221434875974</v>
       </c>
-      <c r="J11">
+      <c r="T11">
         <v>0.4197295230851729</v>
       </c>
-      <c r="K11">
+      <c r="U11">
         <v>0.4119761230162428</v>
       </c>
-      <c r="L11">
+      <c r="V11">
         <v>0.3793510606652745</v>
       </c>
-      <c r="M11">
+      <c r="W11">
         <v>0.4001069169562109</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0.673852728699065</v>
+      </c>
+      <c r="C12">
+        <v>0.6729946914238898</v>
+      </c>
+      <c r="D12">
+        <v>0.6652962980277731</v>
+      </c>
+      <c r="E12">
+        <v>0.6555456539312643</v>
+      </c>
+      <c r="F12">
+        <v>0.6739526303160648</v>
+      </c>
+      <c r="G12">
+        <v>0.6985865557855371</v>
+      </c>
+      <c r="H12">
+        <v>0.681780586310097</v>
+      </c>
+      <c r="I12">
+        <v>0.6818443408928555</v>
+      </c>
+      <c r="J12">
+        <v>0.6820205375715155</v>
+      </c>
+      <c r="K12">
+        <v>0.6620152468129684</v>
+      </c>
+      <c r="L12">
         <v>0.6134051778596208</v>
       </c>
-      <c r="C12">
+      <c r="M12">
         <v>0.6399155604153154</v>
       </c>
-      <c r="D12">
+      <c r="N12">
         <v>0.6395396628955178</v>
       </c>
-      <c r="E12">
+      <c r="O12">
         <v>0.6173672256969912</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>0.6233032031863189</v>
       </c>
-      <c r="G12">
+      <c r="Q12">
         <v>0.5784356484612069</v>
       </c>
-      <c r="H12">
+      <c r="R12">
         <v>0.5554328437441001</v>
       </c>
-      <c r="I12">
+      <c r="S12">
         <v>0.5699803920486941</v>
       </c>
-      <c r="J12">
+      <c r="T12">
         <v>0.5728691836469673</v>
       </c>
-      <c r="K12">
+      <c r="U12">
         <v>0.5520294366834614</v>
       </c>
-      <c r="L12">
+      <c r="V12">
         <v>0.5226979125526409</v>
       </c>
-      <c r="M12">
+      <c r="W12">
         <v>0.5214491487322935</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>0.6938881220750017</v>
+      </c>
+      <c r="C13">
+        <v>0.6758601608343779</v>
+      </c>
+      <c r="D13">
+        <v>0.6779892471690194</v>
+      </c>
+      <c r="E13">
+        <v>0.6975143545697322</v>
+      </c>
+      <c r="F13">
+        <v>0.6452002190233487</v>
+      </c>
+      <c r="G13">
+        <v>0.6707782266862246</v>
+      </c>
+      <c r="H13">
+        <v>0.6968246510475627</v>
+      </c>
+      <c r="I13">
+        <v>0.6605478998708426</v>
+      </c>
+      <c r="J13">
+        <v>0.6532397551784433</v>
+      </c>
+      <c r="K13">
+        <v>0.6530770234473258</v>
+      </c>
+      <c r="L13">
         <v>0.6462946278493198</v>
       </c>
-      <c r="C13">
+      <c r="M13">
         <v>0.5941392222806675</v>
       </c>
-      <c r="D13">
+      <c r="N13">
         <v>0.634381868427035</v>
       </c>
-      <c r="E13">
+      <c r="O13">
         <v>0.6163138758161782</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>0.6398767266834207</v>
       </c>
-      <c r="G13">
+      <c r="Q13">
         <v>0.5713623816680922</v>
       </c>
-      <c r="H13">
+      <c r="R13">
         <v>0.5132898299153361</v>
       </c>
-      <c r="I13">
+      <c r="S13">
         <v>0.5326351290253514</v>
       </c>
-      <c r="J13">
+      <c r="T13">
         <v>0.5380755797670491</v>
       </c>
-      <c r="K13">
+      <c r="U13">
         <v>0.5583239581302164</v>
       </c>
-      <c r="L13">
+      <c r="V13">
         <v>0.5271373494401569</v>
       </c>
-      <c r="M13">
+      <c r="W13">
         <v>0.5447565026817064</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>0.6549992234218756</v>
+      </c>
+      <c r="C14">
+        <v>0.6271294213927526</v>
+      </c>
+      <c r="D14">
+        <v>0.6072967868707597</v>
+      </c>
+      <c r="E14">
+        <v>0.6043623800192444</v>
+      </c>
+      <c r="F14">
+        <v>0.6093068977747147</v>
+      </c>
+      <c r="G14">
+        <v>0.618392281866873</v>
+      </c>
+      <c r="H14">
+        <v>0.6293430765506267</v>
+      </c>
+      <c r="I14">
+        <v>0.604399656263795</v>
+      </c>
+      <c r="J14">
+        <v>0.6366200739056151</v>
+      </c>
+      <c r="K14">
+        <v>0.6826943395940824</v>
+      </c>
+      <c r="L14">
         <v>0.6906659327005953</v>
       </c>
-      <c r="C14">
+      <c r="M14">
         <v>0.6352760248909974</v>
       </c>
-      <c r="D14">
+      <c r="N14">
         <v>0.6382151465346854</v>
       </c>
-      <c r="E14">
+      <c r="O14">
         <v>0.6511996783917351</v>
       </c>
-      <c r="F14">
+      <c r="P14">
         <v>0.5916605744480632</v>
       </c>
-      <c r="G14">
+      <c r="Q14">
         <v>0.5213644653775958</v>
       </c>
-      <c r="H14">
+      <c r="R14">
         <v>0.5680699827146228</v>
       </c>
-      <c r="I14">
+      <c r="S14">
         <v>0.5739600834974306</v>
       </c>
-      <c r="J14">
+      <c r="T14">
         <v>0.5916790934857671</v>
       </c>
-      <c r="K14">
+      <c r="U14">
         <v>0.5850900329200764</v>
       </c>
-      <c r="L14">
+      <c r="V14">
         <v>0.5700168213880782</v>
       </c>
-      <c r="M14">
+      <c r="W14">
         <v>0.569892607786219</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>0.2888810590129756</v>
+      </c>
+      <c r="C15">
+        <v>0.2932654540860782</v>
+      </c>
+      <c r="D15">
+        <v>0.3028998231006901</v>
+      </c>
+      <c r="E15">
+        <v>0.295201518862105</v>
+      </c>
+      <c r="F15">
+        <v>0.2855237906009288</v>
+      </c>
+      <c r="G15">
+        <v>0.3016654678134639</v>
+      </c>
+      <c r="H15">
+        <v>0.3048343985090002</v>
+      </c>
+      <c r="I15">
+        <v>0.3025157710906496</v>
+      </c>
+      <c r="J15">
+        <v>0.2818205603217278</v>
+      </c>
+      <c r="K15">
+        <v>0.2820746748410606</v>
+      </c>
+      <c r="L15">
         <v>0.2873546392356753</v>
       </c>
-      <c r="C15">
+      <c r="M15">
         <v>0.2945603430239045</v>
       </c>
-      <c r="D15">
+      <c r="N15">
         <v>0.3056749669243143</v>
       </c>
-      <c r="E15">
+      <c r="O15">
         <v>0.3086375570139231</v>
       </c>
-      <c r="F15">
+      <c r="P15">
         <v>0.3016910930725508</v>
       </c>
-      <c r="G15">
+      <c r="Q15">
         <v>0.3322190399768192</v>
       </c>
-      <c r="H15">
+      <c r="R15">
         <v>0.3193530242354278</v>
       </c>
-      <c r="I15">
+      <c r="S15">
         <v>0.3236810390062789</v>
       </c>
-      <c r="J15">
+      <c r="T15">
         <v>0.3327640515900323</v>
       </c>
-      <c r="K15">
+      <c r="U15">
         <v>0.3210944001723026</v>
       </c>
-      <c r="L15">
+      <c r="V15">
         <v>0.2930690149554295</v>
       </c>
-      <c r="M15">
+      <c r="W15">
         <v>0.3066200681381373</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>0.3456077021916804</v>
+      </c>
+      <c r="C16">
+        <v>0.3448470061604531</v>
+      </c>
+      <c r="D16">
+        <v>0.3421395294096178</v>
+      </c>
+      <c r="E16">
+        <v>0.3412968012083752</v>
+      </c>
+      <c r="F16">
+        <v>0.33749513836696</v>
+      </c>
+      <c r="G16">
+        <v>0.3441471694875893</v>
+      </c>
+      <c r="H16">
+        <v>0.3407782564698909</v>
+      </c>
+      <c r="I16">
+        <v>0.3415043870188305</v>
+      </c>
+      <c r="J16">
+        <v>0.3407145112492315</v>
+      </c>
+      <c r="K16">
+        <v>0.33798668164808</v>
+      </c>
+      <c r="L16">
         <v>0.3458933397744359</v>
       </c>
-      <c r="C16">
+      <c r="M16">
         <v>0.3534662098255884</v>
       </c>
-      <c r="D16">
+      <c r="N16">
         <v>0.3651078862108473</v>
       </c>
-      <c r="E16">
+      <c r="O16">
         <v>0.3707066912093059</v>
       </c>
-      <c r="F16">
+      <c r="P16">
         <v>0.3656689459717599</v>
       </c>
-      <c r="G16">
+      <c r="Q16">
         <v>0.3574405791068234</v>
       </c>
-      <c r="H16">
+      <c r="R16">
         <v>0.3575744086821406</v>
       </c>
-      <c r="I16">
+      <c r="S16">
         <v>0.3755005904481649</v>
       </c>
-      <c r="J16">
+      <c r="T16">
         <v>0.3771788507053963</v>
       </c>
-      <c r="K16">
+      <c r="U16">
         <v>0.3629367810622763</v>
       </c>
-      <c r="L16">
+      <c r="V16">
         <v>0.3301112185730988</v>
       </c>
-      <c r="M16">
+      <c r="W16">
         <v>0.338613016819801</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>0.2226129322840445</v>
+      </c>
+      <c r="C17">
+        <v>0.2151752628735901</v>
+      </c>
+      <c r="D17">
+        <v>0.2132174805043798</v>
+      </c>
+      <c r="E17">
+        <v>0.2044890459125381</v>
+      </c>
+      <c r="F17">
+        <v>0.2041031170691068</v>
+      </c>
+      <c r="G17">
+        <v>0.1825489626660188</v>
+      </c>
+      <c r="H17">
+        <v>0.178614347026887</v>
+      </c>
+      <c r="I17">
+        <v>0.1722031550380623</v>
+      </c>
+      <c r="J17">
+        <v>0.169418168183831</v>
+      </c>
+      <c r="K17">
+        <v>0.1686481662719633</v>
+      </c>
+      <c r="L17">
         <v>0.1794746961800191</v>
       </c>
-      <c r="C17">
+      <c r="M17">
         <v>0.1720433715868439</v>
       </c>
-      <c r="D17">
+      <c r="N17">
         <v>0.1733365370056849</v>
       </c>
-      <c r="E17">
+      <c r="O17">
         <v>0.174530156242483</v>
       </c>
-      <c r="F17">
+      <c r="P17">
         <v>0.1763268105741071</v>
       </c>
-      <c r="G17">
+      <c r="Q17">
         <v>0.1873392704123225</v>
       </c>
-      <c r="H17">
+      <c r="R17">
         <v>0.1901971226846466</v>
       </c>
-      <c r="I17">
+      <c r="S17">
         <v>0.193553141659954</v>
       </c>
-      <c r="J17">
+      <c r="T17">
         <v>0.1953069334972642</v>
       </c>
-      <c r="K17">
+      <c r="U17">
         <v>0.197985903979525</v>
       </c>
-      <c r="L17">
+      <c r="V17">
         <v>0.1947685120774902</v>
       </c>
-      <c r="M17">
+      <c r="W17">
         <v>0.1940947580430618</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>0.3436321005677453</v>
+      </c>
+      <c r="C18">
+        <v>0.3432352570364144</v>
+      </c>
+      <c r="D18">
+        <v>0.3392960879666196</v>
+      </c>
+      <c r="E18">
+        <v>0.3336964207343278</v>
+      </c>
+      <c r="F18">
+        <v>0.3252883694597477</v>
+      </c>
+      <c r="G18">
+        <v>0.3123948525693028</v>
+      </c>
+      <c r="H18">
+        <v>0.3132573188770886</v>
+      </c>
+      <c r="I18">
+        <v>0.3083538344229795</v>
+      </c>
+      <c r="J18">
+        <v>0.3060153936416714</v>
+      </c>
+      <c r="K18">
+        <v>0.29875167793342</v>
+      </c>
+      <c r="L18">
         <v>0.2923010613035431</v>
       </c>
-      <c r="C18">
+      <c r="M18">
         <v>0.2887235020765697</v>
       </c>
-      <c r="D18">
+      <c r="N18">
         <v>0.2889319095898193</v>
       </c>
-      <c r="E18">
+      <c r="O18">
         <v>0.2812126863885862</v>
       </c>
-      <c r="F18">
+      <c r="P18">
         <v>0.2702402546946058</v>
       </c>
-      <c r="G18">
+      <c r="Q18">
         <v>0.2836733457344892</v>
       </c>
-      <c r="H18">
+      <c r="R18">
         <v>0.2981340224517673</v>
       </c>
-      <c r="I18">
+      <c r="S18">
         <v>0.2955835994928837</v>
       </c>
-      <c r="J18">
+      <c r="T18">
         <v>0.2902742510003765</v>
       </c>
-      <c r="K18">
+      <c r="U18">
         <v>0.2926122472711868</v>
       </c>
-      <c r="L18">
+      <c r="V18">
         <v>0.2819424920662979</v>
       </c>
-      <c r="M18">
+      <c r="W18">
         <v>0.2654964263477159</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>0.5075482091498764</v>
+      </c>
+      <c r="C19">
+        <v>0.4970876639384101</v>
+      </c>
+      <c r="D19">
+        <v>0.4929651040209423</v>
+      </c>
+      <c r="E19">
+        <v>0.506413372751318</v>
+      </c>
+      <c r="F19">
+        <v>0.4874985449346838</v>
+      </c>
+      <c r="G19">
+        <v>0.4783200323248785</v>
+      </c>
+      <c r="H19">
+        <v>0.4622430067318058</v>
+      </c>
+      <c r="I19">
+        <v>0.4527762230909898</v>
+      </c>
+      <c r="J19">
+        <v>0.4437718325826129</v>
+      </c>
+      <c r="K19">
+        <v>0.4358852016174088</v>
+      </c>
+      <c r="L19">
         <v>0.4128048142074696</v>
       </c>
-      <c r="C19">
+      <c r="M19">
         <v>0.4357250688179809</v>
       </c>
-      <c r="D19">
+      <c r="N19">
         <v>0.4687460618783082</v>
       </c>
-      <c r="E19">
+      <c r="O19">
         <v>0.4514665928119781</v>
       </c>
-      <c r="F19">
+      <c r="P19">
         <v>0.4398881046559374</v>
       </c>
-      <c r="G19">
+      <c r="Q19">
         <v>0.4282728703655568</v>
       </c>
-      <c r="H19">
+      <c r="R19">
         <v>0.4210901193101942</v>
       </c>
-      <c r="I19">
+      <c r="S19">
         <v>0.4099809149733618</v>
       </c>
-      <c r="J19">
+      <c r="T19">
         <v>0.3988685812895438</v>
       </c>
-      <c r="K19">
+      <c r="U19">
         <v>0.3956395540445016</v>
       </c>
-      <c r="L19">
+      <c r="V19">
         <v>0.3786429912771243</v>
       </c>
-      <c r="M19">
+      <c r="W19">
         <v>0.3727311790433641</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>0.960822182365364</v>
+      </c>
+      <c r="C20">
+        <v>0.910420324344892</v>
+      </c>
+      <c r="D20">
+        <v>0.9015339010738749</v>
+      </c>
+      <c r="E20">
+        <v>0.8869486777952904</v>
+      </c>
+      <c r="F20">
+        <v>0.8785521312116548</v>
+      </c>
+      <c r="G20">
+        <v>0.8844189732411807</v>
+      </c>
+      <c r="H20">
+        <v>0.8625474583811498</v>
+      </c>
+      <c r="I20">
+        <v>0.8718288996503886</v>
+      </c>
+      <c r="J20">
+        <v>0.8712716154844528</v>
+      </c>
+      <c r="K20">
+        <v>0.8740023114750269</v>
+      </c>
+      <c r="L20">
         <v>0.8930483660811012</v>
       </c>
-      <c r="C20">
+      <c r="M20">
         <v>0.8976681485092473</v>
       </c>
-      <c r="D20">
+      <c r="N20">
         <v>0.8900009255896398</v>
       </c>
-      <c r="E20">
+      <c r="O20">
         <v>0.8760944508356727</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>0.8734852451097509</v>
       </c>
-      <c r="G20">
+      <c r="Q20">
         <v>0.8677379933069352</v>
       </c>
-      <c r="H20">
+      <c r="R20">
         <v>0.868882149484184</v>
       </c>
-      <c r="I20">
+      <c r="S20">
         <v>0.8634971469455794</v>
       </c>
-      <c r="J20">
+      <c r="T20">
         <v>0.8691418895495463</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>0.8637238259732345</v>
       </c>
-      <c r="L20">
+      <c r="V20">
         <v>0.8597636536494594</v>
       </c>
-      <c r="M20">
+      <c r="W20">
         <v>0.8479200590301867</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>0.5696945513052636</v>
+      </c>
+      <c r="C21">
+        <v>0.5788683708488591</v>
+      </c>
+      <c r="D21">
+        <v>0.6351962353671968</v>
+      </c>
+      <c r="E21">
+        <v>0.6495597707599907</v>
+      </c>
+      <c r="F21">
+        <v>0.6580655659736802</v>
+      </c>
+      <c r="G21">
+        <v>0.650247178041776</v>
+      </c>
+      <c r="H21">
+        <v>0.6327907261072288</v>
+      </c>
+      <c r="I21">
+        <v>0.657088995026447</v>
+      </c>
+      <c r="J21">
+        <v>0.6424637958111785</v>
+      </c>
+      <c r="K21">
+        <v>0.6609421671994014</v>
+      </c>
+      <c r="L21">
         <v>0.644242401617095</v>
       </c>
-      <c r="C21">
+      <c r="M21">
         <v>0.6066647369787698</v>
       </c>
-      <c r="D21">
+      <c r="N21">
         <v>0.5810886559691009</v>
       </c>
-      <c r="E21">
+      <c r="O21">
         <v>0.5788940416160495</v>
       </c>
-      <c r="F21">
+      <c r="P21">
         <v>0.5848732389393747</v>
       </c>
-      <c r="G21">
+      <c r="Q21">
         <v>0.5474161107547431</v>
       </c>
-      <c r="H21">
+      <c r="R21">
         <v>0.5225130890770578</v>
       </c>
-      <c r="I21">
+      <c r="S21">
         <v>0.5354309243344113</v>
       </c>
-      <c r="J21">
+      <c r="T21">
         <v>0.5409525954368304</v>
       </c>
-      <c r="K21">
+      <c r="U21">
         <v>0.5100844783102597</v>
       </c>
-      <c r="L21">
+      <c r="V21">
         <v>0.5049311792968083</v>
       </c>
-      <c r="M21">
+      <c r="W21">
         <v>0.4792869891353387</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>0.2571981912692545</v>
+      </c>
+      <c r="C22">
+        <v>0.2543212517934192</v>
+      </c>
+      <c r="D22">
+        <v>0.2666185721674929</v>
+      </c>
+      <c r="E22">
+        <v>0.2657219786732856</v>
+      </c>
+      <c r="F22">
+        <v>0.2676704040440569</v>
+      </c>
+      <c r="G22">
+        <v>0.2516689208022335</v>
+      </c>
+      <c r="H22">
+        <v>0.2539023097315191</v>
+      </c>
+      <c r="I22">
+        <v>0.2786172437347292</v>
+      </c>
+      <c r="J22">
+        <v>0.2620427362103077</v>
+      </c>
+      <c r="K22">
+        <v>0.3076014872185502</v>
+      </c>
+      <c r="L22">
         <v>0.3238566599978149</v>
       </c>
-      <c r="C22">
+      <c r="M22">
         <v>0.3398661442939974</v>
       </c>
-      <c r="D22">
+      <c r="N22">
         <v>0.3337710969627128</v>
       </c>
-      <c r="E22">
+      <c r="O22">
         <v>0.354281104072123</v>
       </c>
-      <c r="F22">
+      <c r="P22">
         <v>0.3543621594078435</v>
       </c>
-      <c r="G22">
+      <c r="Q22">
         <v>0.3829410654559811</v>
       </c>
-      <c r="H22">
+      <c r="R22">
         <v>0.3542593370473346</v>
       </c>
-      <c r="I22">
+      <c r="S22">
         <v>0.3077888613279722</v>
       </c>
-      <c r="J22">
+      <c r="T22">
         <v>0.3230572626940899</v>
       </c>
-      <c r="K22">
+      <c r="U22">
         <v>0.3223282400813302</v>
       </c>
-      <c r="L22">
+      <c r="V22">
         <v>0.3143020622798891</v>
       </c>
-      <c r="M22">
+      <c r="W22">
         <v>0.3201533342288659</v>
       </c>
     </row>
